--- a/lod_ls.xlsx
+++ b/lod_ls.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaosdev\Downloads\LOD-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaosdev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC9B74-5BD5-4F54-8FD6-1CD59BED1DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AF2F5-4110-41B5-B0DF-835A8BB32EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A3956D2-DBE6-462E-8FD8-83DD52D9EAEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A3956D2-DBE6-462E-8FD8-83DD52D9EAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="lod_ls" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">lod_ls!$A$1:$C$76</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">lod_ls!$A$1:$C$98</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,24 @@
     <t>https://www.ebi.ac.uk/rdf/static/biosamples/biosd_attributes.png</t>
   </si>
   <si>
+    <t>ATC groups</t>
+  </si>
+  <si>
+    <t>http://linked.opendata.cz/sparql</t>
+  </si>
+  <si>
+    <t>HealthCare Ontology</t>
+  </si>
+  <si>
+    <t>https://www.orpha.net/sparql</t>
+  </si>
+  <si>
+    <t>Linked Structured Product Labels</t>
+  </si>
+  <si>
+    <t>https://dbmi-icode-01.dbmi.pitt.edu/sparql</t>
+  </si>
+  <si>
     <t>UniProtKB</t>
   </si>
   <si>
@@ -156,6 +174,21 @@
     <t>https://www.ebi.ac.uk/rdf/documentation/reactome/</t>
   </si>
   <si>
+    <t xml:space="preserve">Taxons </t>
+  </si>
+  <si>
+    <t>http://id.eaufrance.fr/sparql</t>
+  </si>
+  <si>
+    <t>DisGeNET</t>
+  </si>
+  <si>
+    <t>http://rdf.disgenet.org/sparql/</t>
+  </si>
+  <si>
+    <t>Active ingredients of medicinal products available in Czech Republic</t>
+  </si>
+  <si>
     <t>Linked Life Data</t>
   </si>
   <si>
@@ -165,6 +198,9 @@
     <t>http://linkedlifedata.com/about</t>
   </si>
   <si>
+    <t>Medicinal products marketed in Czech Republic</t>
+  </si>
+  <si>
     <t>UniProt</t>
   </si>
   <si>
@@ -174,6 +210,120 @@
     <t>https://sparql.uniprot.org/</t>
   </si>
   <si>
+    <t>NERC Vocabulary Server 2.0</t>
+  </si>
+  <si>
+    <t>http://vocab.nerc.ac.uk/sparql/</t>
+  </si>
+  <si>
+    <t>PGxLOD</t>
+  </si>
+  <si>
+    <t>https://pgxlod.loria.fr/sparql</t>
+  </si>
+  <si>
+    <t>eagle-i @ Vanderbilt University</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPSConnectionPool(host='eagle-i.ea.vanderbilt.edu', port=443): Max retries exceeded with url: /sparqler/sparql (Caused by NewConnectionError('&lt;urllib3.connection.VerifiedHTTPSConnection object at 0x7f839d609e48&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>https://eagle-i.ea.vanderbilt.edu/sparqler/sparql</t>
+  </si>
+  <si>
+    <t>Transcription profiling of rat bladder after inoculation with bladder cancer cells</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPSConnectionPool(host='aquarius.tw.rpi.edu', port=443): Max retries exceeded with url: /projects/lobi/virtuoso/sparql (Caused by SSLError(SSLError("bad handshake: Error([('SSL routines', 'tls_process_server_certificate', 'certificate verify failed')],)",),)))</t>
+  </si>
+  <si>
+    <t>http://purl.org/twc/arrayexpress/virtuoso/sparql</t>
+  </si>
+  <si>
+    <t>TCMGeneDIT Dataset</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='www.open-biomed.org.uk', port=80): Max retries exceeded with url: /sparql/endpoint/tcm (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839d344470&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://www.open-biomed.org.uk/sparql/endpoint/tcm</t>
+  </si>
+  <si>
+    <t>Kidney and Urinary Pathway Knowledge Base</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='sparql.kupkb.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839da2e390&gt;: Failed to establish a new connection: [Errno 113] No route to host',)))</t>
+  </si>
+  <si>
+    <t>http://sparql.kupkb.org/sparql</t>
+  </si>
+  <si>
+    <t>Bio2RDF::Sabiork</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='sabiork.bio2rdf.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839d712048&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://sabiork.bio2rdf.org/sparql</t>
+  </si>
+  <si>
+    <t>TaxonConcept Knowledge Base</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='lsd.taxonconcept.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839da97d30&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://lsd.taxonconcept.org/sparql</t>
+  </si>
+  <si>
+    <t>GeoSpecies Knowledge Base</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='lsd.taxonconcept.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839d3ede48&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>Bio2RDF::Iproclass</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='iproclass.bio2rdf.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839d057a58&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://iproclass.bio2rdf.org/sparql</t>
+  </si>
+  <si>
+    <t>Organic Edunet Linked Open Data</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='data.organic-edunet.eu', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839db6e2e8&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://data.organic-edunet.eu/sparql</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='data.organic-edunet.eu', port=80): Max retries exceeded with url: /snorql/ (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839da4fb00&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://data.organic-edunet.eu/snorql/</t>
+  </si>
+  <si>
+    <t>Bio2RDF::Chembl</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='chembl.bio2rdf.org', port=80): Max retries exceeded with url: /sparql (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839d07d898&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://chembl.bio2rdf.org/sparql</t>
+  </si>
+  <si>
+    <t>TCGA Roadmap</t>
+  </si>
+  <si>
+    <t>FAIL (HTTPConnectionPool(host='agalpha.mathbiol.org', port=80): Max retries exceeded with url: /repositories/tcga (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x7f839c897a20&gt;: Failed to establish a new connection: [Errno -2] Name or service not known',)))</t>
+  </si>
+  <si>
+    <t>http://agalpha.mathbiol.org/repositories/tcga</t>
+  </si>
+  <si>
     <t>Bio2RDF::Sgd</t>
   </si>
   <si>
@@ -289,6 +439,9 @@
   </si>
   <si>
     <t>http://affymetrix.bio2rdf.org/sparql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
   <si>
     <t>https://download.bio2rdf.org/#/current/affymetrix/</t>
@@ -677,7 +830,7 @@
     <t>https://www.foodie-cloud.org/sparql</t>
   </si>
   <si>
-    <t>OK (Cristóbal)</t>
+    <t xml:space="preserve"> HttpException: 502 (Irene)</t>
   </si>
   <si>
     <t>Comprehensive Knowledge Archive Network</t>
@@ -806,6 +959,12 @@
     <t>https://hunter-cuny.eagle-i.net/sparqler/query/</t>
   </si>
   <si>
+    <t>European Nature Information System</t>
+  </si>
+  <si>
+    <t>http://semantic.eea.europa.eu/sparql</t>
+  </si>
+  <si>
     <t>eagle-i @ Oregon Health and Science University</t>
   </si>
   <si>
@@ -851,41 +1010,35 @@
     <t>https://utep.eagle-i.net/sparqler/query/</t>
   </si>
   <si>
+    <t xml:space="preserve">Error 504 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error 500 </t>
+  </si>
+  <si>
+    <t>Error 404</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>QueryException: Endpoint returned Content-Type: text/html which is not currently supported for SELECT queries</t>
+  </si>
+  <si>
     <t>Schema2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No - Error 500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not found - Error 404 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error 504 </t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service unavailable </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HttpException: 502</t>
-  </si>
-  <si>
-    <t>Service available</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QueryException: Endpoint returned Content-Type: text/html which is not currently supported for SELECT queries </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +1050,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -982,7 +1142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -992,19 +1155,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,10 +1251,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3048B6FE-51E1-4DFA-AF17-E0E0828156B3}" name="lod_ls" displayName="lod_ls" ref="A1:I76" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I76" xr:uid="{F2DC5C79-092E-40F7-8D31-B9A5153A40BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
-    <sortCondition descending="1" ref="B1:B76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3048B6FE-51E1-4DFA-AF17-E0E0828156B3}" name="lod_ls" displayName="lod_ls" ref="A1:I98" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I98" xr:uid="{F2DC5C79-092E-40F7-8D31-B9A5153A40BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C98">
+    <sortCondition descending="1" ref="B1:B98"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{C584FE7A-5FF8-4C58-8DA9-7316CA706CCC}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="8"/>
@@ -1405,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D317EE-5B48-416C-938A-AFD719D766AF}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1460,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1500,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1519,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1580,7 +1743,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1609,7 +1772,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1619,988 +1782,900 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="D10" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14" t="s">
+      <c r="D16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>309</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="300.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="240.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>132</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="G37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="11" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="I44" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="H45" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="13" t="s">
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="D46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="240.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="13" t="s">
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="D48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="330" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="297" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="255.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>194</v>
+        <v>93</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G50" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G52" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2608,39 +2683,45 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="240.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2648,415 +2729,445 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="7" t="s">
-        <v>215</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="198" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="240.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="330" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="H62" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="I62" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="F63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="D64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="F64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="297" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="F65" s="5"/>
+      <c r="G65" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="H65" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I65" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="255.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="7" t="s">
-        <v>237</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" s="5"/>
       <c r="F72" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="7" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" s="5"/>
       <c r="F75" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -3064,35 +3175,487 @@
     </row>
     <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="7" t="s">
-        <v>252</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F77" s="8"/>
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F99" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C53" r:id="rId1" xr:uid="{155361A4-4226-41B3-8D34-7A0D13A0C10C}"/>
-    <hyperlink ref="C32" r:id="rId2" xr:uid="{DF127603-8D27-40AD-B233-BDD52E637C76}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{D24F9D07-EFAF-40DE-BE0F-62F08330C617}"/>
-    <hyperlink ref="C48" r:id="rId4" xr:uid="{A4E109CD-A4E8-4C78-B530-E9E16B884B7B}"/>
-    <hyperlink ref="C46" r:id="rId5" xr:uid="{8E4F7A6A-302A-4EEC-A4E5-F05FFED02075}"/>
+    <hyperlink ref="C74" r:id="rId1" xr:uid="{155361A4-4226-41B3-8D34-7A0D13A0C10C}"/>
+    <hyperlink ref="C53" r:id="rId2" xr:uid="{DF127603-8D27-40AD-B233-BDD52E637C76}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{D24F9D07-EFAF-40DE-BE0F-62F08330C617}"/>
+    <hyperlink ref="C69" r:id="rId4" xr:uid="{A4E109CD-A4E8-4C78-B530-E9E16B884B7B}"/>
+    <hyperlink ref="C67" r:id="rId5" xr:uid="{8E4F7A6A-302A-4EEC-A4E5-F05FFED02075}"/>
     <hyperlink ref="C2" r:id="rId6" xr:uid="{842F4F1B-FABA-4B8C-BE6A-5B91DE72C217}"/>
     <hyperlink ref="C3" r:id="rId7" xr:uid="{44DBD48C-DED1-4269-9159-0E1352DDC0EC}"/>
     <hyperlink ref="C4" r:id="rId8" xr:uid="{6760409B-64C8-4392-B8D9-ADD657A40383}"/>
@@ -3101,135 +3664,146 @@
     <hyperlink ref="C7" r:id="rId11" xr:uid="{66668810-27B9-4FF5-9DCB-02FCDE5335F9}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{13997103-75E3-41B1-94D2-BBDF6065EBC8}"/>
     <hyperlink ref="C9" r:id="rId13" xr:uid="{E6883F6E-7650-4FFB-9ED6-87AF6AD996DB}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{C46D37C3-3DB5-4AF2-BC06-339CD5D1ADFF}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{64D65BF1-AC7D-4E6C-8CC6-4BA80140B532}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{4B0F8911-0EC3-4D10-BD12-AA0EC750229C}"/>
-    <hyperlink ref="C13" r:id="rId17" xr:uid="{93864EB7-EEB9-4D55-A5EF-A484C2EF2F42}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{35C94FB0-1A89-4F1F-AB8A-CBFCC29A966B}"/>
-    <hyperlink ref="D7" r:id="rId19" xr:uid="{6F24009E-7FB6-481E-B795-9297D7D1F66E}"/>
-    <hyperlink ref="D3" r:id="rId20" xr:uid="{42499909-B321-4FF4-AD0B-EE8A57A1A5C9}"/>
-    <hyperlink ref="D13" r:id="rId21" xr:uid="{E51B76F3-B7F8-4E0B-ABA0-7A6FE0807487}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{6E7AF096-B547-48D0-B377-DA083700C654}"/>
-    <hyperlink ref="D10" r:id="rId23" xr:uid="{F2FD1F06-4DEE-4AE2-A3ED-29E5A4C9D6C3}"/>
-    <hyperlink ref="D9" r:id="rId24" xr:uid="{6188BA92-1CCC-4174-9694-57A1A8B9518D}"/>
-    <hyperlink ref="D6" r:id="rId25" xr:uid="{19270CD4-62C0-463C-BCAE-1E852F7657CF}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{4605263D-CB35-495E-92DC-2F697EBB9D8C}"/>
-    <hyperlink ref="C16" r:id="rId27" xr:uid="{8C7409A9-5BD8-4F08-BFDB-A26888CEAE9F}"/>
-    <hyperlink ref="D16" r:id="rId28" location="/current/drugbank/" xr:uid="{C544DE3F-16E5-4453-BF16-33BE49A5B4D7}"/>
-    <hyperlink ref="C17" r:id="rId29" xr:uid="{FF54ECBE-F3C0-48B3-805A-A9BE49543920}"/>
-    <hyperlink ref="C18" r:id="rId30" xr:uid="{FFA2C464-C323-4222-9188-C013143C4082}"/>
-    <hyperlink ref="C19" r:id="rId31" xr:uid="{45EE387E-976E-4AD6-964B-5747F173434D}"/>
-    <hyperlink ref="C20" r:id="rId32" xr:uid="{039DEBE1-FF8B-40C9-B8F2-0C69E467EDF3}"/>
-    <hyperlink ref="C21" r:id="rId33" xr:uid="{1791116D-18EC-45EB-A5D0-85FA5668521E}"/>
-    <hyperlink ref="C22" r:id="rId34" xr:uid="{CC4AC22C-20AB-43C4-97AA-E418736F6476}"/>
-    <hyperlink ref="C23" r:id="rId35" xr:uid="{B977671A-F45B-4ABD-92AA-059B202C1E8A}"/>
-    <hyperlink ref="D14" r:id="rId36" xr:uid="{61B85EDD-283B-4D94-82B3-9D443F7DE96B}"/>
-    <hyperlink ref="C24" r:id="rId37" xr:uid="{4B3980A8-DFB4-443F-BA61-396A91591F0A}"/>
-    <hyperlink ref="C25" r:id="rId38" xr:uid="{36364D5D-B383-4577-9E4F-A9590668641F}"/>
-    <hyperlink ref="C26" r:id="rId39" xr:uid="{5BB93D6F-B8F8-4348-A22C-4415BB98B009}"/>
-    <hyperlink ref="C27" r:id="rId40" xr:uid="{ACC3F1F3-06D6-4AD8-834F-3E1A9B2F436D}"/>
-    <hyperlink ref="C28" r:id="rId41" xr:uid="{9EC1BECB-9E49-4D24-9F29-D4C878BFB86A}"/>
-    <hyperlink ref="C29" r:id="rId42" xr:uid="{DCEB5E28-B96F-4486-933F-DA491065C7AA}"/>
-    <hyperlink ref="C30" r:id="rId43" xr:uid="{214A52BD-E68A-4946-AFF5-4E4D6F93DE77}"/>
-    <hyperlink ref="C31" r:id="rId44" xr:uid="{EEF6929D-C3B7-4663-813F-A8296AE224A0}"/>
-    <hyperlink ref="C33" r:id="rId45" xr:uid="{8BEF101E-906B-4EFC-B941-0B4C1BFE88DB}"/>
-    <hyperlink ref="C34" r:id="rId46" xr:uid="{68CA4CBB-9EFA-443F-BBC5-8E36DD175B2B}"/>
-    <hyperlink ref="C35" r:id="rId47" xr:uid="{92A05C8F-54F6-4C9D-8CB6-300DCB4F886F}"/>
-    <hyperlink ref="C36" r:id="rId48" xr:uid="{D573750A-D3AB-4045-A09B-C58E5C61E7DB}"/>
-    <hyperlink ref="C37" r:id="rId49" xr:uid="{1809FEBC-40DA-4B12-9734-F766C81DACC6}"/>
-    <hyperlink ref="C38" r:id="rId50" xr:uid="{E2F10E31-2580-4B30-A2B5-45B3C53D0690}"/>
-    <hyperlink ref="C39" r:id="rId51" xr:uid="{FB259FD9-0F4F-413D-BE0F-AC35890E551C}"/>
-    <hyperlink ref="C41" r:id="rId52" xr:uid="{FEC411EC-0DE5-4959-9BEE-ABBB4021F31C}"/>
-    <hyperlink ref="C40" r:id="rId53" xr:uid="{BE326DFC-4248-4A4C-9BE7-C3F70CCBDAE4}"/>
-    <hyperlink ref="C42" r:id="rId54" xr:uid="{2999F7C3-284E-42F4-9684-06E2251F0948}"/>
-    <hyperlink ref="C43" r:id="rId55" xr:uid="{C8B2ED91-5099-4D0A-9543-496B661DAFD5}"/>
-    <hyperlink ref="C44" r:id="rId56" xr:uid="{6931B936-118E-4D75-BAC1-C0B1BB2DA6A2}"/>
-    <hyperlink ref="C45" r:id="rId57" xr:uid="{1D6B7F61-E75E-4F98-9E32-EDFF576751F6}"/>
-    <hyperlink ref="C47" r:id="rId58" xr:uid="{8EFABD0F-E594-491D-876B-69BA27A473D0}"/>
-    <hyperlink ref="F3" r:id="rId59" xr:uid="{25E0541C-C63C-4348-8AEC-382D51CED1E8}"/>
-    <hyperlink ref="F9" r:id="rId60" xr:uid="{2A7E99D8-4CEA-4045-AD44-C9912BF2EFCB}"/>
-    <hyperlink ref="F6" r:id="rId61" xr:uid="{854C02AB-187D-4E3E-9132-13FED07E5C23}"/>
-    <hyperlink ref="F7" r:id="rId62" xr:uid="{38C1B322-F205-44A2-A60B-DE3261773EDA}"/>
-    <hyperlink ref="F11" r:id="rId63" xr:uid="{09B41144-E2F9-46C4-8E68-320E684D4CF0}"/>
-    <hyperlink ref="F13" r:id="rId64" xr:uid="{F135C2D6-4046-4AE6-9907-C03BED109689}"/>
-    <hyperlink ref="F12" r:id="rId65" xr:uid="{0FD3C7F5-A632-4D06-8230-1AAC0CEF2601}"/>
-    <hyperlink ref="C72" r:id="rId66" xr:uid="{00981B10-2F5C-4464-92AE-812BF86F42F7}"/>
-    <hyperlink ref="C73" r:id="rId67" xr:uid="{56C83559-DD38-4CB3-AC20-DCDD0A177C4C}"/>
-    <hyperlink ref="C74" r:id="rId68" xr:uid="{10C5C66C-481C-4BB8-ABB6-DF1072664A01}"/>
-    <hyperlink ref="C75" r:id="rId69" xr:uid="{64B0C855-782F-41B9-8B00-C667396D39B9}"/>
-    <hyperlink ref="C76" r:id="rId70" xr:uid="{B72BB275-AC67-46D4-A81B-9E0C63A4C685}"/>
-    <hyperlink ref="C49" r:id="rId71" xr:uid="{7281086B-67BC-4521-939F-C580B42C57E2}"/>
-    <hyperlink ref="C54" r:id="rId72" xr:uid="{08D4C921-0752-4710-85FD-5FD8F3B2DB54}"/>
-    <hyperlink ref="C55" r:id="rId73" xr:uid="{0C110218-CAF1-4115-9251-F54F69F6519B}"/>
-    <hyperlink ref="C56" r:id="rId74" xr:uid="{3ACF3CB2-8803-49D5-9731-06818EC03C9E}"/>
-    <hyperlink ref="C57" r:id="rId75" xr:uid="{B9195A06-5D9F-4966-9446-B28E6443C8C3}"/>
-    <hyperlink ref="C58" r:id="rId76" xr:uid="{03BB111B-BFD6-4C1F-A948-C07F0C6049D8}"/>
-    <hyperlink ref="C59" r:id="rId77" xr:uid="{BD9115B1-3EC5-4D38-820A-476F12BBE933}"/>
-    <hyperlink ref="C60" r:id="rId78" xr:uid="{59AA5FAC-1494-4173-A19A-A8A0E3FFF96A}"/>
-    <hyperlink ref="C61" r:id="rId79" xr:uid="{01B01771-9B7C-4876-A341-68DF7A87C31D}"/>
-    <hyperlink ref="C62" r:id="rId80" xr:uid="{C8E12AC4-7641-4D17-8692-E1FCFC0C9CA2}"/>
-    <hyperlink ref="C63" r:id="rId81" xr:uid="{1A5E4556-A815-4C12-B82B-9FE2B1F0FC73}"/>
-    <hyperlink ref="C64" r:id="rId82" xr:uid="{BE552583-7EFB-4321-98AF-BDCCE5A80802}"/>
-    <hyperlink ref="C65" r:id="rId83" xr:uid="{C23CB776-FA19-48F2-A391-B4DF7B0DD9AF}"/>
-    <hyperlink ref="C66" r:id="rId84" xr:uid="{1C730D94-B931-42E9-AA13-10997F57FDEB}"/>
-    <hyperlink ref="C67" r:id="rId85" xr:uid="{8C6EA0FC-3AEA-40C4-8145-71FE286AC4D6}"/>
-    <hyperlink ref="C68" r:id="rId86" xr:uid="{B0B5C29F-1FA1-4564-9B85-8D5CBF0CFB5D}"/>
-    <hyperlink ref="C70" r:id="rId87" xr:uid="{8228862E-1C53-451B-BE39-E0E4102D7E17}"/>
-    <hyperlink ref="C50" r:id="rId88" xr:uid="{F9A49484-E854-4B47-B391-5DFBBBE73565}"/>
-    <hyperlink ref="C51" r:id="rId89" xr:uid="{4F61D8A9-558F-4517-8FF5-49FAC3CE420E}"/>
-    <hyperlink ref="C52" r:id="rId90" xr:uid="{F1DDDC10-BA8B-4F01-B644-E56938D4F1FB}"/>
-    <hyperlink ref="C69" r:id="rId91" xr:uid="{CF91D49E-FE8B-4DCE-BE33-9312666FBAEC}"/>
-    <hyperlink ref="C71" r:id="rId92" xr:uid="{BA20734D-623F-4205-92AE-D286DA971E5B}"/>
-    <hyperlink ref="E15" r:id="rId93" location="/current/interpro/" xr:uid="{41CC1780-7C6C-4F88-9BAB-502F730B7D75}"/>
-    <hyperlink ref="E17" r:id="rId94" location="/current/bioportal/" xr:uid="{6F22F0F3-E177-438F-AD32-43935090AFEE}"/>
-    <hyperlink ref="E19" r:id="rId95" location="/current/clinicaltrials/" xr:uid="{A1590BE7-CD38-48DE-8042-DBA25F72E0D1}"/>
-    <hyperlink ref="E18" r:id="rId96" location="/current/taxonomy/" xr:uid="{C24ED8E1-971B-4984-82DC-4EEC53E16608}"/>
-    <hyperlink ref="E22" r:id="rId97" location="/current/affymetrix/" xr:uid="{91C04141-EDD8-41C2-95B1-F0BE13C2549B}"/>
-    <hyperlink ref="E23" r:id="rId98" location="/current/pubmed/" xr:uid="{8A6734C1-B475-49F2-9357-D71413C1894D}"/>
-    <hyperlink ref="D12" r:id="rId99" xr:uid="{EE2492A1-1BBC-4EA0-AEB3-C131F3298F37}"/>
-    <hyperlink ref="F51" r:id="rId100" xr:uid="{FE64C22F-9F6B-41F3-80DA-56B85BA909E7}"/>
-    <hyperlink ref="F54" r:id="rId101" xr:uid="{1F090976-9C5D-443E-AFAE-AE5C7D2C65DE}"/>
-    <hyperlink ref="F57" r:id="rId102" xr:uid="{AFC1DD0A-5E1A-4D40-BF22-C091FE293A97}"/>
-    <hyperlink ref="F58" r:id="rId103" xr:uid="{147288A0-0989-446F-945D-3142825741B9}"/>
-    <hyperlink ref="F59" r:id="rId104" xr:uid="{F5911077-475C-4B82-920D-7B690D0AAB3B}"/>
-    <hyperlink ref="F60" r:id="rId105" xr:uid="{17BEFEE6-397E-48DD-886A-3E921BDABEDC}"/>
-    <hyperlink ref="F61" r:id="rId106" xr:uid="{97554CC3-B192-440C-A39D-2C94A0FCF261}"/>
-    <hyperlink ref="F62" r:id="rId107" xr:uid="{91EE9AD0-3B2F-4888-96B6-E2F249AE72AF}"/>
-    <hyperlink ref="F63" r:id="rId108" xr:uid="{FA4CD51E-91DF-4127-BBD0-607FF41F239E}"/>
-    <hyperlink ref="F64" r:id="rId109" xr:uid="{862DCEF2-D3B7-4B81-AB5F-79B0BEED237C}"/>
-    <hyperlink ref="F65" r:id="rId110" xr:uid="{986B84D4-3DB5-4928-8D9D-2178D95B41DC}"/>
-    <hyperlink ref="F66" r:id="rId111" xr:uid="{1F07D233-8EE1-4CFA-A478-D645359206B5}"/>
-    <hyperlink ref="F67" r:id="rId112" xr:uid="{169A9D02-C35C-4452-AA30-60886C21F48D}"/>
-    <hyperlink ref="F68" r:id="rId113" xr:uid="{9C28AC30-FD0A-40EB-BFB4-8395CD26982A}"/>
-    <hyperlink ref="F69" r:id="rId114" xr:uid="{83212B67-6A6E-4ED3-8BF4-7BFCC87A41F3}"/>
-    <hyperlink ref="F70" r:id="rId115" xr:uid="{A372DB77-0BD0-4282-8FC3-852C561FB856}"/>
-    <hyperlink ref="F72" r:id="rId116" xr:uid="{9C3565E8-95A6-4CF1-BF8D-38CA58CDF2FE}"/>
-    <hyperlink ref="F73" r:id="rId117" xr:uid="{48C726A3-9F66-4AD4-AD7C-A79ABA99E7ED}"/>
-    <hyperlink ref="F74" r:id="rId118" xr:uid="{20888B10-63B5-430B-841A-674BD84AD987}"/>
-    <hyperlink ref="F75" r:id="rId119" xr:uid="{399578CD-9F1B-4259-B165-10C57D979040}"/>
-    <hyperlink ref="F76" r:id="rId120" xr:uid="{2238CB83-3884-4360-A423-56F37AF40434}"/>
-    <hyperlink ref="E24" r:id="rId121" location="/current/irefindex/" xr:uid="{237196E8-C3F7-49E4-A863-A8A9CD806E7D}"/>
-    <hyperlink ref="E25" r:id="rId122" location="/current/homologene/" xr:uid="{652A6B51-602B-4227-8800-116E1ACBA3FF}"/>
-    <hyperlink ref="E27" r:id="rId123" location="/current/goa/" xr:uid="{0A5A9841-F401-4B34-859F-E5DDB5C50858}"/>
-    <hyperlink ref="E28" r:id="rId124" location="/current/lsr/" xr:uid="{7A12A54F-F832-467C-8776-DF7072C76EBA}"/>
-    <hyperlink ref="E29" r:id="rId125" location="/current/gendr/" xr:uid="{985D83EC-9CCB-4546-8235-EF697A6AB455}"/>
-    <hyperlink ref="E30" r:id="rId126" location="/current/omim/" xr:uid="{A7B5E352-ED17-47DE-A524-79578350CB4C}"/>
-    <hyperlink ref="E31" r:id="rId127" location="/current/mgi/" xr:uid="{60F920D5-F9FD-40A8-B77A-EF5FD8671A8A}"/>
-    <hyperlink ref="E33" r:id="rId128" location="/current/ctd/" xr:uid="{D6F90FE8-FB44-4D09-8678-07DB63E4337D}"/>
-    <hyperlink ref="E35" r:id="rId129" location="/current/genage/" xr:uid="{14D5041A-1166-49DC-ADA3-47B2ADF212CE}"/>
-    <hyperlink ref="E38" r:id="rId130" location="/current/sider/" xr:uid="{D91CCC30-CF41-4FB1-8EE0-1C7BF142CFFD}"/>
-    <hyperlink ref="E39" r:id="rId131" location="/current/dbsnp/" xr:uid="{4870BC20-83E4-4C21-9B60-34A3FA88C261}"/>
-    <hyperlink ref="E40" r:id="rId132" location="/current/wormbase/" xr:uid="{F6847EF1-544F-4067-9DE4-BFA07F40F040}"/>
-    <hyperlink ref="E41" r:id="rId133" location="/current/ncbigene/" xr:uid="{59DAD888-18A7-445E-9F40-18D016010CDD}"/>
-    <hyperlink ref="E42" r:id="rId134" location="/current/hgnc/" xr:uid="{9E32F445-27A3-4517-830B-53C1329D029F}"/>
-    <hyperlink ref="E43" r:id="rId135" location="/current/biomodels/" xr:uid="{6668FE9C-98DF-4594-9010-0D97B948AF5E}"/>
-    <hyperlink ref="E44" r:id="rId136" location="/current/pharmgkb/" xr:uid="{224F32F4-E80E-4B49-92CA-27A946CEC170}"/>
-    <hyperlink ref="E46" r:id="rId137" location="/current/mesh/" xr:uid="{9CA9F6D4-0E76-4460-ADF9-3B41DCB76A5D}"/>
-    <hyperlink ref="E47" r:id="rId138" location="/current/orphanet/" xr:uid="{06D3F1B9-8FD6-4612-A6F9-C287B261DDFC}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{EBF0A69E-06D2-43B6-9E59-1F1064278732}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{E1D2D87E-F5D5-4A40-A6FC-FB4977CF9EC8}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{267975FA-BB2E-4265-A7B0-F8882921D235}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{C46D37C3-3DB5-4AF2-BC06-339CD5D1ADFF}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{64D65BF1-AC7D-4E6C-8CC6-4BA80140B532}"/>
+    <hyperlink ref="C15" r:id="rId19" xr:uid="{AAAAF1A3-619E-4E47-B6FD-C4F534929419}"/>
+    <hyperlink ref="C16" r:id="rId20" xr:uid="{BE9B6DF9-BECE-4E4E-A0B2-D41C1106E05D}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{7BD2705D-FA54-4965-B815-06785DFA958D}"/>
+    <hyperlink ref="C18" r:id="rId22" xr:uid="{4B0F8911-0EC3-4D10-BD12-AA0EC750229C}"/>
+    <hyperlink ref="C19" r:id="rId23" xr:uid="{C0FC65A4-B23C-4A27-A279-77E98FEF1B0F}"/>
+    <hyperlink ref="C20" r:id="rId24" xr:uid="{93864EB7-EEB9-4D55-A5EF-A484C2EF2F42}"/>
+    <hyperlink ref="C21" r:id="rId25" xr:uid="{F25E881D-E268-4437-A5F6-5998852A0234}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{09D83B2C-1832-4A6A-BA82-D3A0CA1656BD}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{35C94FB0-1A89-4F1F-AB8A-CBFCC29A966B}"/>
+    <hyperlink ref="D7" r:id="rId28" xr:uid="{6F24009E-7FB6-481E-B795-9297D7D1F66E}"/>
+    <hyperlink ref="D3" r:id="rId29" xr:uid="{42499909-B321-4FF4-AD0B-EE8A57A1A5C9}"/>
+    <hyperlink ref="D20" r:id="rId30" xr:uid="{E51B76F3-B7F8-4E0B-ABA0-7A6FE0807487}"/>
+    <hyperlink ref="D19" r:id="rId31" display="No - Es el mismo que ATC (Irene)" xr:uid="{4B5E5AB5-F12D-438D-B0FF-D90A16E08880}"/>
+    <hyperlink ref="D14" r:id="rId32" xr:uid="{6E7AF096-B547-48D0-B377-DA083700C654}"/>
+    <hyperlink ref="D13" r:id="rId33" xr:uid="{F2FD1F06-4DEE-4AE2-A3ED-29E5A4C9D6C3}"/>
+    <hyperlink ref="D9" r:id="rId34" xr:uid="{6188BA92-1CCC-4174-9694-57A1A8B9518D}"/>
+    <hyperlink ref="D6" r:id="rId35" xr:uid="{19270CD4-62C0-463C-BCAE-1E852F7657CF}"/>
+    <hyperlink ref="C36" r:id="rId36" xr:uid="{4605263D-CB35-495E-92DC-2F697EBB9D8C}"/>
+    <hyperlink ref="C37" r:id="rId37" xr:uid="{8C7409A9-5BD8-4F08-BFDB-A26888CEAE9F}"/>
+    <hyperlink ref="D37" r:id="rId38" location="/current/drugbank/" xr:uid="{C544DE3F-16E5-4453-BF16-33BE49A5B4D7}"/>
+    <hyperlink ref="C38" r:id="rId39" xr:uid="{FF54ECBE-F3C0-48B3-805A-A9BE49543920}"/>
+    <hyperlink ref="C39" r:id="rId40" xr:uid="{FFA2C464-C323-4222-9188-C013143C4082}"/>
+    <hyperlink ref="C40" r:id="rId41" xr:uid="{45EE387E-976E-4AD6-964B-5747F173434D}"/>
+    <hyperlink ref="C41" r:id="rId42" xr:uid="{039DEBE1-FF8B-40C9-B8F2-0C69E467EDF3}"/>
+    <hyperlink ref="C42" r:id="rId43" xr:uid="{1791116D-18EC-45EB-A5D0-85FA5668521E}"/>
+    <hyperlink ref="C43" r:id="rId44" xr:uid="{CC4AC22C-20AB-43C4-97AA-E418736F6476}"/>
+    <hyperlink ref="C44" r:id="rId45" xr:uid="{B977671A-F45B-4ABD-92AA-059B202C1E8A}"/>
+    <hyperlink ref="D35" r:id="rId46" xr:uid="{61B85EDD-283B-4D94-82B3-9D443F7DE96B}"/>
+    <hyperlink ref="C45" r:id="rId47" xr:uid="{4B3980A8-DFB4-443F-BA61-396A91591F0A}"/>
+    <hyperlink ref="C46" r:id="rId48" xr:uid="{36364D5D-B383-4577-9E4F-A9590668641F}"/>
+    <hyperlink ref="C47" r:id="rId49" xr:uid="{5BB93D6F-B8F8-4348-A22C-4415BB98B009}"/>
+    <hyperlink ref="C48" r:id="rId50" xr:uid="{ACC3F1F3-06D6-4AD8-834F-3E1A9B2F436D}"/>
+    <hyperlink ref="C49" r:id="rId51" xr:uid="{9EC1BECB-9E49-4D24-9F29-D4C878BFB86A}"/>
+    <hyperlink ref="C50" r:id="rId52" xr:uid="{DCEB5E28-B96F-4486-933F-DA491065C7AA}"/>
+    <hyperlink ref="C51" r:id="rId53" xr:uid="{214A52BD-E68A-4946-AFF5-4E4D6F93DE77}"/>
+    <hyperlink ref="C52" r:id="rId54" xr:uid="{EEF6929D-C3B7-4663-813F-A8296AE224A0}"/>
+    <hyperlink ref="C54" r:id="rId55" xr:uid="{8BEF101E-906B-4EFC-B941-0B4C1BFE88DB}"/>
+    <hyperlink ref="C55" r:id="rId56" xr:uid="{68CA4CBB-9EFA-443F-BBC5-8E36DD175B2B}"/>
+    <hyperlink ref="C56" r:id="rId57" xr:uid="{92A05C8F-54F6-4C9D-8CB6-300DCB4F886F}"/>
+    <hyperlink ref="C57" r:id="rId58" xr:uid="{D573750A-D3AB-4045-A09B-C58E5C61E7DB}"/>
+    <hyperlink ref="C58" r:id="rId59" xr:uid="{1809FEBC-40DA-4B12-9734-F766C81DACC6}"/>
+    <hyperlink ref="C59" r:id="rId60" xr:uid="{E2F10E31-2580-4B30-A2B5-45B3C53D0690}"/>
+    <hyperlink ref="C60" r:id="rId61" xr:uid="{FB259FD9-0F4F-413D-BE0F-AC35890E551C}"/>
+    <hyperlink ref="C62" r:id="rId62" xr:uid="{FEC411EC-0DE5-4959-9BEE-ABBB4021F31C}"/>
+    <hyperlink ref="C61" r:id="rId63" xr:uid="{BE326DFC-4248-4A4C-9BE7-C3F70CCBDAE4}"/>
+    <hyperlink ref="C63" r:id="rId64" xr:uid="{2999F7C3-284E-42F4-9684-06E2251F0948}"/>
+    <hyperlink ref="C64" r:id="rId65" xr:uid="{C8B2ED91-5099-4D0A-9543-496B661DAFD5}"/>
+    <hyperlink ref="C65" r:id="rId66" xr:uid="{6931B936-118E-4D75-BAC1-C0B1BB2DA6A2}"/>
+    <hyperlink ref="C66" r:id="rId67" xr:uid="{1D6B7F61-E75E-4F98-9E32-EDFF576751F6}"/>
+    <hyperlink ref="C68" r:id="rId68" xr:uid="{8EFABD0F-E594-491D-876B-69BA27A473D0}"/>
+    <hyperlink ref="F3" r:id="rId69" xr:uid="{25E0541C-C63C-4348-8AEC-382D51CED1E8}"/>
+    <hyperlink ref="F9" r:id="rId70" xr:uid="{2A7E99D8-4CEA-4045-AD44-C9912BF2EFCB}"/>
+    <hyperlink ref="F6" r:id="rId71" xr:uid="{854C02AB-187D-4E3E-9132-13FED07E5C23}"/>
+    <hyperlink ref="F7" r:id="rId72" xr:uid="{38C1B322-F205-44A2-A60B-DE3261773EDA}"/>
+    <hyperlink ref="F14" r:id="rId73" xr:uid="{09B41144-E2F9-46C4-8E68-320E684D4CF0}"/>
+    <hyperlink ref="F20" r:id="rId74" xr:uid="{F135C2D6-4046-4AE6-9907-C03BED109689}"/>
+    <hyperlink ref="F18" r:id="rId75" xr:uid="{0FD3C7F5-A632-4D06-8230-1AAC0CEF2601}"/>
+    <hyperlink ref="C94" r:id="rId76" xr:uid="{00981B10-2F5C-4464-92AE-812BF86F42F7}"/>
+    <hyperlink ref="C95" r:id="rId77" xr:uid="{56C83559-DD38-4CB3-AC20-DCDD0A177C4C}"/>
+    <hyperlink ref="C96" r:id="rId78" xr:uid="{10C5C66C-481C-4BB8-ABB6-DF1072664A01}"/>
+    <hyperlink ref="C97" r:id="rId79" xr:uid="{64B0C855-782F-41B9-8B00-C667396D39B9}"/>
+    <hyperlink ref="C98" r:id="rId80" xr:uid="{B72BB275-AC67-46D4-A81B-9E0C63A4C685}"/>
+    <hyperlink ref="C70" r:id="rId81" xr:uid="{7281086B-67BC-4521-939F-C580B42C57E2}"/>
+    <hyperlink ref="C75" r:id="rId82" xr:uid="{08D4C921-0752-4710-85FD-5FD8F3B2DB54}"/>
+    <hyperlink ref="C76" r:id="rId83" xr:uid="{0C110218-CAF1-4115-9251-F54F69F6519B}"/>
+    <hyperlink ref="C77" r:id="rId84" xr:uid="{3ACF3CB2-8803-49D5-9731-06818EC03C9E}"/>
+    <hyperlink ref="C78" r:id="rId85" xr:uid="{B9195A06-5D9F-4966-9446-B28E6443C8C3}"/>
+    <hyperlink ref="C79" r:id="rId86" xr:uid="{03BB111B-BFD6-4C1F-A948-C07F0C6049D8}"/>
+    <hyperlink ref="C80" r:id="rId87" xr:uid="{BD9115B1-3EC5-4D38-820A-476F12BBE933}"/>
+    <hyperlink ref="C81" r:id="rId88" xr:uid="{59AA5FAC-1494-4173-A19A-A8A0E3FFF96A}"/>
+    <hyperlink ref="C82" r:id="rId89" xr:uid="{01B01771-9B7C-4876-A341-68DF7A87C31D}"/>
+    <hyperlink ref="C83" r:id="rId90" xr:uid="{C8E12AC4-7641-4D17-8692-E1FCFC0C9CA2}"/>
+    <hyperlink ref="C84" r:id="rId91" xr:uid="{1A5E4556-A815-4C12-B82B-9FE2B1F0FC73}"/>
+    <hyperlink ref="C85" r:id="rId92" xr:uid="{BE552583-7EFB-4321-98AF-BDCCE5A80802}"/>
+    <hyperlink ref="C86" r:id="rId93" xr:uid="{C23CB776-FA19-48F2-A391-B4DF7B0DD9AF}"/>
+    <hyperlink ref="C87" r:id="rId94" xr:uid="{1C730D94-B931-42E9-AA13-10997F57FDEB}"/>
+    <hyperlink ref="C88" r:id="rId95" xr:uid="{8C6EA0FC-3AEA-40C4-8145-71FE286AC4D6}"/>
+    <hyperlink ref="C89" r:id="rId96" xr:uid="{B0B5C29F-1FA1-4564-9B85-8D5CBF0CFB5D}"/>
+    <hyperlink ref="C92" r:id="rId97" xr:uid="{8228862E-1C53-451B-BE39-E0E4102D7E17}"/>
+    <hyperlink ref="C71" r:id="rId98" xr:uid="{F9A49484-E854-4B47-B391-5DFBBBE73565}"/>
+    <hyperlink ref="C72" r:id="rId99" xr:uid="{4F61D8A9-558F-4517-8FF5-49FAC3CE420E}"/>
+    <hyperlink ref="C73" r:id="rId100" xr:uid="{F1DDDC10-BA8B-4F01-B644-E56938D4F1FB}"/>
+    <hyperlink ref="C90" r:id="rId101" xr:uid="{CF91D49E-FE8B-4DCE-BE33-9312666FBAEC}"/>
+    <hyperlink ref="C91" r:id="rId102" xr:uid="{B03C1D79-700E-40A1-BC0B-2F7AC2F34417}"/>
+    <hyperlink ref="C93" r:id="rId103" xr:uid="{BA20734D-623F-4205-92AE-D286DA971E5B}"/>
+    <hyperlink ref="E36" r:id="rId104" location="/current/interpro/" xr:uid="{41CC1780-7C6C-4F88-9BAB-502F730B7D75}"/>
+    <hyperlink ref="E38" r:id="rId105" location="/current/bioportal/" xr:uid="{6F22F0F3-E177-438F-AD32-43935090AFEE}"/>
+    <hyperlink ref="E40" r:id="rId106" location="/current/clinicaltrials/" xr:uid="{A1590BE7-CD38-48DE-8042-DBA25F72E0D1}"/>
+    <hyperlink ref="E39" r:id="rId107" location="/current/taxonomy/" xr:uid="{C24ED8E1-971B-4984-82DC-4EEC53E16608}"/>
+    <hyperlink ref="E43" r:id="rId108" location="/current/affymetrix/" xr:uid="{91C04141-EDD8-41C2-95B1-F0BE13C2549B}"/>
+    <hyperlink ref="E44" r:id="rId109" location="/current/pubmed/" xr:uid="{8A6734C1-B475-49F2-9357-D71413C1894D}"/>
+    <hyperlink ref="D18" r:id="rId110" xr:uid="{EE2492A1-1BBC-4EA0-AEB3-C131F3298F37}"/>
+    <hyperlink ref="F72" r:id="rId111" xr:uid="{FE64C22F-9F6B-41F3-80DA-56B85BA909E7}"/>
+    <hyperlink ref="F75" r:id="rId112" xr:uid="{1F090976-9C5D-443E-AFAE-AE5C7D2C65DE}"/>
+    <hyperlink ref="F78" r:id="rId113" xr:uid="{AFC1DD0A-5E1A-4D40-BF22-C091FE293A97}"/>
+    <hyperlink ref="F79" r:id="rId114" xr:uid="{147288A0-0989-446F-945D-3142825741B9}"/>
+    <hyperlink ref="F80" r:id="rId115" xr:uid="{F5911077-475C-4B82-920D-7B690D0AAB3B}"/>
+    <hyperlink ref="F81" r:id="rId116" xr:uid="{17BEFEE6-397E-48DD-886A-3E921BDABEDC}"/>
+    <hyperlink ref="F82" r:id="rId117" xr:uid="{97554CC3-B192-440C-A39D-2C94A0FCF261}"/>
+    <hyperlink ref="F83" r:id="rId118" xr:uid="{91EE9AD0-3B2F-4888-96B6-E2F249AE72AF}"/>
+    <hyperlink ref="F84" r:id="rId119" xr:uid="{FA4CD51E-91DF-4127-BBD0-607FF41F239E}"/>
+    <hyperlink ref="F85" r:id="rId120" xr:uid="{862DCEF2-D3B7-4B81-AB5F-79B0BEED237C}"/>
+    <hyperlink ref="F86" r:id="rId121" xr:uid="{986B84D4-3DB5-4928-8D9D-2178D95B41DC}"/>
+    <hyperlink ref="F87" r:id="rId122" xr:uid="{1F07D233-8EE1-4CFA-A478-D645359206B5}"/>
+    <hyperlink ref="F88" r:id="rId123" xr:uid="{169A9D02-C35C-4452-AA30-60886C21F48D}"/>
+    <hyperlink ref="F89" r:id="rId124" xr:uid="{9C28AC30-FD0A-40EB-BFB4-8395CD26982A}"/>
+    <hyperlink ref="F90" r:id="rId125" xr:uid="{83212B67-6A6E-4ED3-8BF4-7BFCC87A41F3}"/>
+    <hyperlink ref="F92" r:id="rId126" xr:uid="{A372DB77-0BD0-4282-8FC3-852C561FB856}"/>
+    <hyperlink ref="F94" r:id="rId127" xr:uid="{9C3565E8-95A6-4CF1-BF8D-38CA58CDF2FE}"/>
+    <hyperlink ref="F95" r:id="rId128" xr:uid="{48C726A3-9F66-4AD4-AD7C-A79ABA99E7ED}"/>
+    <hyperlink ref="F96" r:id="rId129" xr:uid="{20888B10-63B5-430B-841A-674BD84AD987}"/>
+    <hyperlink ref="F97" r:id="rId130" xr:uid="{399578CD-9F1B-4259-B165-10C57D979040}"/>
+    <hyperlink ref="F98" r:id="rId131" xr:uid="{2238CB83-3884-4360-A423-56F37AF40434}"/>
+    <hyperlink ref="E45" r:id="rId132" location="/current/irefindex/" xr:uid="{237196E8-C3F7-49E4-A863-A8A9CD806E7D}"/>
+    <hyperlink ref="E46" r:id="rId133" location="/current/homologene/" xr:uid="{652A6B51-602B-4227-8800-116E1ACBA3FF}"/>
+    <hyperlink ref="E48" r:id="rId134" location="/current/goa/" xr:uid="{0A5A9841-F401-4B34-859F-E5DDB5C50858}"/>
+    <hyperlink ref="E49" r:id="rId135" location="/current/lsr/" xr:uid="{7A12A54F-F832-467C-8776-DF7072C76EBA}"/>
+    <hyperlink ref="E50" r:id="rId136" location="/current/gendr/" xr:uid="{985D83EC-9CCB-4546-8235-EF697A6AB455}"/>
+    <hyperlink ref="E51" r:id="rId137" location="/current/omim/" xr:uid="{A7B5E352-ED17-47DE-A524-79578350CB4C}"/>
+    <hyperlink ref="E52" r:id="rId138" location="/current/mgi/" xr:uid="{60F920D5-F9FD-40A8-B77A-EF5FD8671A8A}"/>
+    <hyperlink ref="E54" r:id="rId139" location="/current/ctd/" xr:uid="{D6F90FE8-FB44-4D09-8678-07DB63E4337D}"/>
+    <hyperlink ref="E56" r:id="rId140" location="/current/genage/" xr:uid="{14D5041A-1166-49DC-ADA3-47B2ADF212CE}"/>
+    <hyperlink ref="E59" r:id="rId141" location="/current/sider/" xr:uid="{D91CCC30-CF41-4FB1-8EE0-1C7BF142CFFD}"/>
+    <hyperlink ref="E60" r:id="rId142" location="/current/dbsnp/" xr:uid="{4870BC20-83E4-4C21-9B60-34A3FA88C261}"/>
+    <hyperlink ref="E61" r:id="rId143" location="/current/wormbase/" xr:uid="{F6847EF1-544F-4067-9DE4-BFA07F40F040}"/>
+    <hyperlink ref="E62" r:id="rId144" location="/current/ncbigene/" xr:uid="{59DAD888-18A7-445E-9F40-18D016010CDD}"/>
+    <hyperlink ref="E63" r:id="rId145" location="/current/hgnc/" xr:uid="{9E32F445-27A3-4517-830B-53C1329D029F}"/>
+    <hyperlink ref="E64" r:id="rId146" location="/current/biomodels/" xr:uid="{6668FE9C-98DF-4594-9010-0D97B948AF5E}"/>
+    <hyperlink ref="E65" r:id="rId147" location="/current/pharmgkb/" xr:uid="{224F32F4-E80E-4B49-92CA-27A946CEC170}"/>
+    <hyperlink ref="E67" r:id="rId148" location="/current/mesh/" xr:uid="{9CA9F6D4-0E76-4460-ADF9-3B41DCB76A5D}"/>
+    <hyperlink ref="E68" r:id="rId149" location="/current/orphanet/" xr:uid="{06D3F1B9-8FD6-4612-A6F9-C287B261DDFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId139"/>
+    <tablePart r:id="rId150"/>
   </tableParts>
 </worksheet>
 </file>

--- a/lod_ls.xlsx
+++ b/lod_ls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaosdev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91C36BA-C0A0-4423-92F3-5BC7B78904AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6256CFB-0179-4C9D-A778-43CC2624E398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="517">
   <si>
     <t>title</t>
   </si>
@@ -1211,9 +1211,6 @@
   </si>
   <si>
     <t>https://download.bio2rdf.org/#/current/drugbank/</t>
-  </si>
-  <si>
-    <t>ATC</t>
   </si>
   <si>
     <t>http://linkedlifedata.com/about</t>
@@ -2084,7 +2081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,13 +2097,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2144,7 +2141,7 @@
         <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,7 +2158,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,7 +2175,7 @@
         <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,7 +2192,7 @@
         <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,7 +2212,7 @@
         <v>393</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
         <v>392</v>
@@ -2238,16 +2235,16 @@
         <v>393</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,16 +2281,16 @@
         <v>393</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2347,7 +2344,7 @@
         <v>393</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G12" t="s">
         <v>392</v>
@@ -2384,7 +2381,7 @@
         <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2401,7 +2398,7 @@
         <v>330</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2418,7 +2415,7 @@
         <v>353</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,7 +2503,7 @@
         <v>394</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,7 +2554,7 @@
         <v>323</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>323</v>
@@ -2580,13 +2577,13 @@
         <v>396</v>
       </c>
       <c r="H25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2603,16 +2600,16 @@
         <v>348</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2629,10 +2626,10 @@
         <v>351</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2649,10 +2646,10 @@
         <v>381</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
         <v>381</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>381</v>
@@ -2689,10 +2686,10 @@
         <v>383</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,10 +2706,10 @@
         <v>362</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2729,10 +2726,10 @@
         <v>386</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,10 +2746,10 @@
         <v>384</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2769,10 +2766,10 @@
         <v>385</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2789,7 @@
         <v>392</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G35" t="s">
         <v>392</v>
@@ -2815,16 +2812,16 @@
         <v>392</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,16 +2841,16 @@
         <v>392</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,13 +2870,13 @@
         <v>392</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2899,16 +2896,16 @@
         <v>392</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2928,7 +2925,7 @@
         <v>392</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G40" t="s">
         <v>392</v>
@@ -2951,7 +2948,7 @@
         <v>392</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G41" t="s">
         <v>392</v>
@@ -2974,10 +2971,10 @@
         <v>392</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,13 +2994,13 @@
         <v>392</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,7 +3020,7 @@
         <v>392</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
         <v>392</v>
@@ -3046,7 +3043,7 @@
         <v>392</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G45" t="s">
         <v>392</v>
@@ -3069,16 +3066,16 @@
         <v>392</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,16 +3095,16 @@
         <v>392</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3127,16 +3124,16 @@
         <v>392</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3156,16 +3153,16 @@
         <v>392</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3185,16 +3182,16 @@
         <v>392</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,16 +3211,16 @@
         <v>392</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,16 +3240,16 @@
         <v>392</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3272,16 +3269,16 @@
         <v>392</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3301,13 +3298,13 @@
         <v>390</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,7 +3324,7 @@
         <v>391</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3347,7 +3344,7 @@
         <v>391</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3384,7 +3381,7 @@
         <v>391</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,7 +3401,7 @@
         <v>391</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3424,7 +3421,7 @@
         <v>391</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,7 +3441,7 @@
         <v>391</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,7 +3461,7 @@
         <v>391</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3484,7 +3481,7 @@
         <v>391</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3504,7 +3501,7 @@
         <v>391</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3524,7 +3521,7 @@
         <v>391</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,7 +3541,7 @@
         <v>391</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>391</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,7 +3581,7 @@
         <v>391</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,7 +3601,7 @@
         <v>391</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,7 +3621,7 @@
         <v>391</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,7 +3641,7 @@
         <v>391</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,7 +3678,7 @@
         <v>391</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,7 +3698,7 @@
         <v>391</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3718,7 @@
         <v>391</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3993,7 +3990,7 @@
         <v>311</v>
       </c>
       <c r="E91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,7 +4126,7 @@
         <v>346</v>
       </c>
       <c r="E99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,7 +4143,7 @@
         <v>74</v>
       </c>
       <c r="E100" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,7 +4248,7 @@
         <v>394</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -4271,7 +4268,7 @@
         <v>394</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="240" x14ac:dyDescent="0.25">
@@ -4291,7 +4288,7 @@
         <v>394</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,7 +4359,7 @@
         <v>394</v>
       </c>
       <c r="F112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
